--- a/chiu/DatabaseTables.xlsx
+++ b/chiu/DatabaseTables.xlsx
@@ -5,28 +5,29 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Chiu\Desktop\Student Evaluation and Monitoring System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Chiu\Desktop\Student Evaluation and Monitoring System\chiu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="7" r:id="rId1"/>
     <sheet name="Account" sheetId="18" r:id="rId2"/>
-    <sheet name="Student" sheetId="1" r:id="rId3"/>
-    <sheet name="SubjectsTakenByStudent" sheetId="3" r:id="rId4"/>
-    <sheet name="AdvancedCredit" sheetId="15" r:id="rId5"/>
-    <sheet name="LecSubjectsOffered" sheetId="2" r:id="rId6"/>
-    <sheet name="LabSubjectsOffered" sheetId="14" r:id="rId7"/>
-    <sheet name="Schedule" sheetId="13" r:id="rId8"/>
-    <sheet name="Subjects" sheetId="6" r:id="rId9"/>
-    <sheet name="SubjectDetail" sheetId="16" r:id="rId10"/>
-    <sheet name="Prerequisite" sheetId="8" r:id="rId11"/>
-    <sheet name="Corequisite" sheetId="9" r:id="rId12"/>
-    <sheet name="Course" sheetId="4" r:id="rId13"/>
-    <sheet name="CourseDetails" sheetId="12" r:id="rId14"/>
-    <sheet name="SubjectsCourse" sheetId="5" r:id="rId15"/>
+    <sheet name="College" sheetId="19" r:id="rId3"/>
+    <sheet name="Student" sheetId="1" r:id="rId4"/>
+    <sheet name="SubjectsTakenByStudent" sheetId="3" r:id="rId5"/>
+    <sheet name="AdvancedCredit" sheetId="15" r:id="rId6"/>
+    <sheet name="LecSubjectsOffered" sheetId="2" r:id="rId7"/>
+    <sheet name="LabSubjectsOffered" sheetId="14" r:id="rId8"/>
+    <sheet name="Schedule" sheetId="13" r:id="rId9"/>
+    <sheet name="Subjects" sheetId="6" r:id="rId10"/>
+    <sheet name="SubjectDetail" sheetId="16" r:id="rId11"/>
+    <sheet name="Prerequisite" sheetId="8" r:id="rId12"/>
+    <sheet name="Corequisite" sheetId="9" r:id="rId13"/>
+    <sheet name="Course" sheetId="4" r:id="rId14"/>
+    <sheet name="CourseDetails" sheetId="12" r:id="rId15"/>
+    <sheet name="SubjectsCourse" sheetId="5" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>FirstName</t>
   </si>
@@ -236,6 +237,12 @@
   </si>
   <si>
     <t>photo</t>
+  </si>
+  <si>
+    <t>college_name</t>
+  </si>
+  <si>
+    <t>college_abbreviation</t>
   </si>
 </sst>
 </file>
@@ -599,6 +606,39 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -631,7 +671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -658,7 +698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -685,23 +725,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -711,13 +752,16 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -751,7 +795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -793,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -825,6 +869,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -889,7 +960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -922,7 +993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -983,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -1029,7 +1100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -1071,7 +1142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -1109,37 +1180,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>